--- a/MediaOutlist.xlsx
+++ b/MediaOutlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>http://forums.hackaday.com/</t>
   </si>
   <si>
-    <t>http://makezine.com/forums/</t>
-  </si>
-  <si>
     <t>editor@makezine.com</t>
   </si>
   <si>
@@ -188,20 +185,158 @@
     <t>Bianca@huffingtonpost.com</t>
   </si>
   <si>
-    <t>Bianca Bosker</t>
-  </si>
-  <si>
     <t>jog@yahoo-inc.com</t>
   </si>
   <si>
-    <t>Jason O. Gilbert</t>
+    <t>tips@tested.com</t>
+  </si>
+  <si>
+    <t>Emailed On</t>
+  </si>
+  <si>
+    <t>See Sheet 2</t>
+  </si>
+  <si>
+    <t>Bianca Bosker, Executive Tech Editor</t>
+  </si>
+  <si>
+    <t>Jason O. Gilbert, Editor Yahoo Tech</t>
+  </si>
+  <si>
+    <t>gerald.smith@huffingtonpost.com</t>
+  </si>
+  <si>
+    <t>Gerry Smith, Tech Reporter</t>
+  </si>
+  <si>
+    <t>submit@wired.com</t>
+  </si>
+  <si>
+    <t>http://www.technologyreview.com/contact/submit/?type=pitch</t>
+  </si>
+  <si>
+    <t>KELSEY CAMPBELL-DOLLAGHAN</t>
+  </si>
+  <si>
+    <t>ANDREW LISZEWSKI</t>
+  </si>
+  <si>
+    <t>SARAH ZHANG</t>
+  </si>
+  <si>
+    <t>DARREN ORF</t>
+  </si>
+  <si>
+    <t>darren.orf@gizmodo.com</t>
+  </si>
+  <si>
+    <t>sarah@gizmodo.com</t>
+  </si>
+  <si>
+    <t>andrewl@gizmodo.com</t>
+  </si>
+  <si>
+    <t>kelsey@gizmodo.com</t>
+  </si>
+  <si>
+    <t>lhorn@gizmodo.com</t>
+  </si>
+  <si>
+    <t>Leslie Horn</t>
+  </si>
+  <si>
+    <t>bbarrett@gizmodo.com</t>
+  </si>
+  <si>
+    <t>meg@gizmodo.com</t>
+  </si>
+  <si>
+    <t>Brian Barrett</t>
+  </si>
+  <si>
+    <t>Meg Neal</t>
+  </si>
+  <si>
+    <t>http://www.engadget.com/about/contact/</t>
+  </si>
+  <si>
+    <t>http://www.christinawarren.com/contact/</t>
+  </si>
+  <si>
+    <t>Christina Warren, Senior Tech Mashable</t>
+  </si>
+  <si>
+    <t>http://mashable.com/submit/</t>
+  </si>
+  <si>
+    <t>TechCrunch</t>
+  </si>
+  <si>
+    <t>http://techcrunch.com/contact/</t>
+  </si>
+  <si>
+    <t>queries@popsci.com</t>
+  </si>
+  <si>
+    <t>Glenn Derene</t>
+  </si>
+  <si>
+    <t>David Dunbar</t>
+  </si>
+  <si>
+    <t>Joseph Pappalardo</t>
+  </si>
+  <si>
+    <t>Jim Meigs</t>
+  </si>
+  <si>
+    <t>pmwebmaster@hearst.com</t>
+  </si>
+  <si>
+    <t>https://www.makerjuice.com/contact/</t>
+  </si>
+  <si>
+    <t>Washington Post Tech</t>
+  </si>
+  <si>
+    <t>http://help.washingtonpost.com/ics/support/ticketnewwizard.asp?style=classic&amp;deptID=15080</t>
+  </si>
+  <si>
+    <t>http://www.theverge.com/contact-the-verge</t>
+  </si>
+  <si>
+    <t>BBC Tech</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/10725415</t>
+  </si>
+  <si>
+    <t>New York Times</t>
+  </si>
+  <si>
+    <t>news-tips@nytimes.com</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>http://help.npr.org/npr/includes/customer/npr/custforms/contactus.aspx</t>
+  </si>
+  <si>
+    <t>http://makezine.com/forums/, http://makermedia.com/contact-us/</t>
+  </si>
+  <si>
+    <t>http://www.reddit.com/r/3Dprinting/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +354,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF292F33"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -245,13 +397,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,20 +713,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +739,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -592,15 +753,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -611,123 +772,205 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -735,118 +978,215 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://makezine.com/forums/"/>
     <hyperlink ref="B5" r:id="rId5" display="mailto:editor@makezine.com"/>
     <hyperlink ref="B6" r:id="rId6" display="mailto:info@oshwa.org"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B20" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/MediaOutlist.xlsx
+++ b/MediaOutlist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>http://www.reddit.com/r/3Dprinting/</t>
+  </si>
+  <si>
+    <t>sgardner@dailyegyptian.com</t>
+  </si>
+  <si>
+    <t>Sarah Gardner, Editor-In-Chief</t>
+  </si>
+  <si>
+    <t>jrobinson@dailyegyptian.com</t>
+  </si>
+  <si>
+    <t>Jack Robinson, Managing Editor</t>
+  </si>
+  <si>
+    <t>lnozicka@dailyegyptian.com</t>
+  </si>
+  <si>
+    <t>Luke Nozicka, Campus Editor</t>
   </si>
 </sst>
 </file>
@@ -334,9 +352,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +393,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,17 +421,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,7 +747,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,8 +850,8 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,21 +1014,20 @@
     <hyperlink ref="B6" r:id="rId6" display="mailto:info@oshwa.org"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B20" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,8 +1219,44 @@
         <v>90</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B33" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/MediaOutlist.xlsx
+++ b/MediaOutlist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>http://forums.hackaday.com/</t>
   </si>
   <si>
-    <t>editor@makezine.com</t>
-  </si>
-  <si>
     <t>info@oshwa.org</t>
   </si>
   <si>
@@ -158,30 +155,6 @@
     <t>alex.hern@theguardian.com</t>
   </si>
   <si>
-    <t>Stuart Dredge</t>
-  </si>
-  <si>
-    <t>stuart.dredge@theguardian.com</t>
-  </si>
-  <si>
-    <t>Paul Boyd, Multimedia editor</t>
-  </si>
-  <si>
-    <t>paul.boyd@theguardian.com</t>
-  </si>
-  <si>
-    <t>Jason Phipps, Audio producer</t>
-  </si>
-  <si>
-    <t>jason.phipps@theguardian.com</t>
-  </si>
-  <si>
-    <t>Martyn Dore, Administrator</t>
-  </si>
-  <si>
-    <t>martyn.dore@theguardian.com</t>
-  </si>
-  <si>
     <t>Bianca@huffingtonpost.com</t>
   </si>
   <si>
@@ -191,9 +164,6 @@
     <t>tips@tested.com</t>
   </si>
   <si>
-    <t>Emailed On</t>
-  </si>
-  <si>
     <t>See Sheet 2</t>
   </si>
   <si>
@@ -345,6 +315,18 @@
   </si>
   <si>
     <t>Luke Nozicka, Campus Editor</t>
+  </si>
+  <si>
+    <t>Contacted On</t>
+  </si>
+  <si>
+    <t>New Blankets</t>
+  </si>
+  <si>
+    <t>Arch Reactor</t>
+  </si>
+  <si>
+    <t>Open Space SI</t>
   </si>
 </sst>
 </file>
@@ -744,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +738,7 @@
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,13 +765,16 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="3">
+        <v>41913</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,16 +787,20 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="3">
+        <v>41913</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="E5" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,7 +808,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,7 +827,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41912</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -851,7 +846,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,71 +868,95 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3">
         <v>41912</v>
@@ -942,66 +964,111 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="E22" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="E23" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="E25" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="E27" s="3">
+        <v>41913</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="3">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>101</v>
+      </c>
+      <c r="E29" s="3">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="3">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1010,15 +1077,14 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4" display="http://makezine.com/forums/"/>
-    <hyperlink ref="B5" r:id="rId5" display="mailto:editor@makezine.com"/>
-    <hyperlink ref="B6" r:id="rId6" display="mailto:info@oshwa.org"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId5" display="mailto:info@oshwa.org"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1026,227 +1092,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MediaOutlist.xlsx
+++ b/MediaOutlist.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -190,9 +194,6 @@
   </si>
   <si>
     <t>New Blankets</t>
-  </si>
-  <si>
-    <t>Arch Reactor</t>
   </si>
   <si>
     <t>Open Space SI</t>
@@ -429,12 +430,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -443,22 +443,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -508,7 +493,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -516,93 +501,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -661,72 +591,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E2" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -735,673 +941,699 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="E4" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="E6" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>41912</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="E10" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E12" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E13" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="E14" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E16" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="E17" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="E18" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="E19" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>41912</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="E21" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="E22" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="E23" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="E24" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="E25" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="E26" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="E27" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="E28" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="E29" s="1">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>41913</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="E32" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="E33" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="E34" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="E35" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
+      <c r="E36" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="E37" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="E41" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="E45" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="E46" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="E48" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="B50" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="E50" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="E54" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="news@3dprintingindustry.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="tips@hackaday.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://forums.hackaday.com/"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://makezine.com/forums/, http://makermedia.com/contact-us/"/>
-    <hyperlink ref="B6" r:id="rId5" display="info@oshwa.org"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://opensource.org/contact"/>
-    <hyperlink ref="C9" r:id="rId7" display="http://forums.reprap.org/"/>
-    <hyperlink ref="B11" r:id="rId8" display="crosby@siu.edu"/>
-    <hyperlink ref="B20" r:id="rId9" display="tips@tested.com"/>
-    <hyperlink ref="B34" r:id="rId10" display="anna@makermedia.com"/>
-    <hyperlink ref="B35" r:id="rId11" display="jleto@nova-labs.org"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B33" r:id="rId10"/>
+    <hyperlink ref="B34" r:id="rId11"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="39.5708502024291"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="37"/>
+    <col min="2" max="2" width="39.5703125" style="5"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="B28"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="sgardner@dailyegyptian.com"/>
-    <hyperlink ref="B31" r:id="rId2" display="jrobinson@dailyegyptian.com"/>
-    <hyperlink ref="B32" r:id="rId3" display="lnozicka@dailyegyptian.com"/>
-    <hyperlink ref="B33" r:id="rId4" display="editor@dailyegyptian.com"/>
+    <hyperlink ref="B30" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B33" r:id="rId4"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>